--- a/mappings/parameter.xlsx
+++ b/mappings/parameter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,25 +447,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AQUO_Codes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>AQUO_Omschrijving</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ISC_Parameter</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Identification unique de l'unité</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DONAR_Parameter</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DONAR_PARCode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>HDH</t>
         </is>
@@ -482,25 +492,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>123TClBen</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>1,2,3-trichloorbenzeen</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1,2,3 Trichloorbenzeen</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>1,2,3-trichloorbenzeen</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>123TClBen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -517,25 +537,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>124TClBen</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>1,2,4-trichloorbenzeen</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1,2,4 Trichloorbenzeen</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>1,2,4-trichloorbenzeen</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>124TClBen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -552,25 +582,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>12DClC2a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>1,2-dichloorethaan</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1,2-dichloorethaan</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>1,2-dichloorethaan</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12DClC2a</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -587,25 +627,35 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>135TClBen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>1,3,5-trichloorbenzeen</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1,3,5 Trichloorbenzeen</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>1,3,5-trichloorbenzeen</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>135TClBen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>4ttC8yFol</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>4-tertiair-octylfenol</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4-(1,1',3,3' - tetramethylbutyl)-fenol (Para-tert-octylfenol)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>4-tertiair-octylfenol</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4ttC8yFol</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -657,25 +717,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>acnfn</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>aclonifen</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>aclonifen</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>aclonifen</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>acnfn</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -692,25 +762,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>alCl</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>alachloor</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Alachloor</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>alachloor</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>alCl</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -727,25 +807,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>aldn</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>aldrin</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aldrin</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>aldrin</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>aldn</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -762,25 +852,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>aedsfn</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>alfa-endosulfan</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>alfa-Endosulfan</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>alfa-endosulfan</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>aedsfn</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -797,25 +897,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>aHCH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>alfa-hexachloorcyclohexaan</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>alpha Hexachloorcyclohexaan</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>alfa-hexachloorcyclohexaan</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>aHCH</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -832,25 +942,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Ant</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>antraceen</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Antraceen</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>antraceen</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ant</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -867,25 +987,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>arseen</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Arseen  opgelost</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>arseen</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>nf</t>
         </is>
@@ -902,25 +1032,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>arseen</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Arseen  opgelost</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>arseen</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -937,25 +1077,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>atzne</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>atrazine</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Atrazine</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>atrazine</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>atzne</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -972,25 +1122,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>benzeen</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Benzeen</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>benzeen</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1007,25 +1167,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>BaP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>benzo(a)pyreen</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Benzo (a) pyreen</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>benzo(a)pyreen</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BaP</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1033,34 +1203,44 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>207-08-9</t>
+          <t>191-24-2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>benzo(k)fluorantheen</t>
+          <t>BghiPe</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Benzo (k) fluorantheen</t>
+          <t>benzo(ghi)peryleen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Benzo (ghi) peryleen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>benzo(k)fluorantheen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>benzo(g,h,i)peryleen</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>BghiPe</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1068,34 +1248,44 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1179</v>
+        <v>1117</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>33213-65-9</t>
+          <t>207-08-9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>beta-endosulfan</t>
+          <t>BkF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>beta-Endosulfan</t>
+          <t>benzo(k)fluorantheen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Benzo (k) fluorantheen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>beta-endosulfan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>benzo(k)fluorantheen</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>BkF</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1103,34 +1293,44 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1201</v>
+        <v>1179</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>319-85-7</t>
+          <t>33213-65-9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>beta-hexachloorcyclohexaan</t>
+          <t>bedsfn</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>beta Hexachloorcyclohexaan</t>
+          <t>beta-endosulfan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>beta-Endosulfan</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>beta-hexachloorcyclohexaan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>beta-endosulfan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>bedsfn</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1138,34 +1338,44 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1119</v>
+        <v>1201</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>42576-02-3</t>
+          <t>319-85-7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bifenox</t>
+          <t>bHCH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>bifenox</t>
+          <t>beta-hexachloorcyclohexaan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>beta Hexachloorcyclohexaan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>bifenox</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>beta-hexachloorcyclohexaan</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>bHCH</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1173,36 +1383,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1388</v>
+        <v>1119</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7440-43-9</t>
+          <t>42576-02-3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cadmium</t>
+          <t>bfnx</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cadmium (Cd) opgelost</t>
+          <t>bifenox</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>bifenox</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cadmium</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>nf</t>
+          <t>bifenox</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>bfnx</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>NVT</t>
         </is>
       </c>
     </row>
@@ -1217,60 +1437,80 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>cadmium</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Cadmium (Cd) opgelost</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>cadmium</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>NVT</t>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>nf</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1464</v>
+        <v>1388</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>470-90-6</t>
+          <t>7440-43-9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chloorfenvinfos</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chloorfenvinfos</t>
+          <t>cadmium</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Cadmium (Cd) opgelost</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>chloorfenvinfos</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>cadmium</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1278,34 +1518,44 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1439</v>
+        <v>1464</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>479-61-8</t>
+          <t>470-90-6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chlorofyl-a</t>
+          <t>Clfvfs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chlorofyl a</t>
+          <t>chloorfenvinfos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Chloorfenvinfos</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>chlorofyl-a</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
+        <is>
+          <t>chloorfenvinfos</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Clfvfs</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1313,69 +1563,89 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1337</v>
+        <v>1439</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16887-00-6</t>
+          <t>479-61-8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chloride</t>
+          <t>CHLFa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chloride</t>
+          <t>chlorofyl-a</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Chlorofyl a</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>chloride</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>nf</t>
+          <t>chlorofyl-a</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CHLFa</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NVT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1379</v>
+        <v>1337</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7440-38-2</t>
+          <t>16887-00-6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>arseen</t>
+          <t>Cl</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>kobalt opgelost</t>
+          <t>chloride</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Chloride</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>arseen</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>chloride</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cl</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>nf</t>
         </is>
@@ -1392,60 +1662,80 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>arseen</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>kobalt opgelost</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>arseen</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>NVT</t>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>nf</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2879</v>
+        <v>1379</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>36643-28-4</t>
+          <t>7440-38-2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>tributyltin (kation)</t>
+          <t>As</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Verbindingen van tributyltin (Tributyltin kation)</t>
+          <t>arseen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>kobalt opgelost</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>tributyltin (kation)</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>arseen</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1453,36 +1743,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1392</v>
+        <v>2879</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7440-50-8</t>
+          <t>36643-28-4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>koper</t>
+          <t>TC4ySn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>koper (Cu) opgelost</t>
+          <t>tributyltin (kation)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Verbindingen van tributyltin (Tributyltin kation)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>koper</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>nf</t>
+          <t>tributyltin (kation)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TC4ySn</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NVT</t>
         </is>
       </c>
     </row>
@@ -1497,60 +1797,80 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>koper</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>koper (Cu) opgelost</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>koper</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>NVT</t>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>nf</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1935</v>
+        <v>1392</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28159-98-0</t>
+          <t>7440-50-8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>irgarol</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cybutryne</t>
+          <t>koper</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>koper (Cu) opgelost</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>irgarol</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>koper</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1558,34 +1878,44 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1140</v>
+        <v>1935</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>52315-07-8</t>
+          <t>28159-98-0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>cypermethrin</t>
+          <t>irgrl</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cypermetrine</t>
+          <t>irgarol</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>cybutryne</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cypermethrin</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
+        <is>
+          <t>irgarol</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>irgrl</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1593,34 +1923,44 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>72-54-8</t>
+          <t>52315-07-8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,4'-dichloordifenyldichloorethaan</t>
+          <t>cypmtn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DDD pp'</t>
+          <t>cypermethrin</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>cypermetrine</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4,4'-dichloordifenyldichloorethaan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>cypermethrin</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>cypmtn</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1628,34 +1968,44 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>72-55-9</t>
+          <t>72-54-8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4,4'-dichloordifenyldichlooretheen</t>
+          <t>44DDD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DDE pp'</t>
+          <t>4,4'-dichloordifenyldichloorethaan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>DDD pp'</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4,4'-dichloordifenyldichlooretheen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>4,4'-dichloordifenyldichloorethaan</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>44DDD</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1663,34 +2013,44 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>789-02-6</t>
+          <t>72-55-9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2,4'-dichloordifenyltrichloorethaan</t>
+          <t>44DDE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DDT op'</t>
+          <t>4,4'-dichloordifenyldichlooretheen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>DDE pp'</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2,4'-dichloordifenyltrichloorethaan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>4,4'-dichloordifenyldichlooretheen</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>44DDE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1698,34 +2058,44 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>50-29-3</t>
+          <t>789-02-6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4,4'-dichloordifenyltrichloorethaan</t>
+          <t>24DDT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DDT pp'</t>
+          <t>2,4'-dichloordifenyltrichloorethaan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>DDT op'</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4,4'-dichloordifenyltrichloorethaan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>2,4'-dichloordifenyltrichloorethaan</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>24DDT</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1733,34 +2103,44 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1202</v>
+        <v>1148</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>319-86-8</t>
+          <t>50-29-3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>delta-hexachloorcyclohexaan</t>
+          <t>44DDT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>delta Hexachloorcyclohexaan</t>
+          <t>4,4'-dichloordifenyltrichloorethaan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>DDT pp'</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>delta-hexachloorcyclohexaan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>4,4'-dichloordifenyltrichloorethaan</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>44DDT</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1768,34 +2148,44 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6616</v>
+        <v>1202</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>117-81-7</t>
+          <t>319-86-8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bis(2-ethylhexyl)ftalaat (DEHP)</t>
+          <t>dHCH</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Di(2-ethylhexyl)ftalaat DEHP</t>
+          <t>delta-hexachloorcyclohexaan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>delta Hexachloorcyclohexaan</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>bis(2-ethylhexyl)ftalaat (DEHP)</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t>delta-hexachloorcyclohexaan</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>dHCH</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1803,34 +2193,44 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1168</v>
+        <v>6616</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>75-09-2</t>
+          <t>117-81-7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>dichloormethaan</t>
+          <t>DEHP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dichloormethaan</t>
+          <t>bis(2-ethylhexyl)ftalaat (DEHP)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Di(2-ethylhexyl)ftalaat DEHP</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>dichloormethaan</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
+        <is>
+          <t>bis(2-ethylhexyl)ftalaat (DEHP)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>DEHP</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1838,34 +2238,44 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>62-73-7</t>
+          <t>75-09-2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>dichloorvos</t>
+          <t>DClC1a</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>dichloorvos</t>
+          <t>dichloormethaan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Dichloormethaan</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>dichloorvos</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>dichloormethaan</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>DClC1a</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1873,34 +2283,44 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>115-32-2</t>
+          <t>62-73-7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>dicofol</t>
+          <t>DClvs</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dicofol</t>
+          <t>dichloorvos</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>dichloorvos</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>dicofol</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
+        <is>
+          <t>dichloorvos</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>DClvs</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1908,34 +2328,44 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>60-57-1</t>
+          <t>115-32-2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dieldrin</t>
+          <t>Dcfl</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Dieldrin</t>
+          <t>dicofol</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Dicofol</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>dieldrin</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
+        <is>
+          <t>dicofol</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Dcfl</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1943,34 +2373,44 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>330-54-1</t>
+          <t>60-57-1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>diuron</t>
+          <t>dieldn</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Diuron</t>
+          <t>dieldrin</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Dieldrin</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>diuron</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>dieldrin</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>dieldn</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -1978,34 +2418,44 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>72-20-8</t>
+          <t>330-54-1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>endrin</t>
+          <t>Durn</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Endrin</t>
+          <t>diuron</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Diuron</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>endrin</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>diuron</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Durn</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2013,34 +2463,44 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1024-57-3</t>
+          <t>72-20-8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>cis-heptachloorepoxide</t>
+          <t>endn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>heptachloorepoxide</t>
+          <t>endrin</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Endrin</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cis-heptachloorepoxide</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>endrin</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>endn</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2048,34 +2508,44 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>206-44-0</t>
+          <t>1024-57-3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fluorantheen</t>
+          <t>cHpClepO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fluorantheen</t>
+          <t>cis-heptachloorepoxide</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>heptachloorepoxide</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>fluorantheen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>cis-heptachloorepoxide</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>cHpClepO</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2083,34 +2553,44 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7073</v>
+        <v>1191</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16984-48-8</t>
+          <t>206-44-0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fluoride</t>
+          <t>Flu</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Anorganische fluoriden = fluoride opgelost</t>
+          <t>fluorantheen</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Fluorantheen</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>fluoride</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
+        <is>
+          <t>fluorantheen</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Flu</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2118,34 +2598,44 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1203</v>
+        <v>7073</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>58-89-9</t>
+          <t>16984-48-8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma-hexachloorcyclohexaan (lindaan)</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>gamma Hexachloorcyclohexaan (Lindaan)</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Anorganische fluoriden = fluoride opgelost</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>gamma-hexachloorcyclohexaan (lindaan)</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
+        <is>
+          <t>fluoride</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2153,34 +2643,44 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>76-44-8</t>
+          <t>58-89-9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>heptachloor</t>
+          <t>cHCH</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>heptachloor</t>
+          <t>gamma-hexachloorcyclohexaan (lindaan)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>gamma Hexachloorcyclohexaan (Lindaan)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>heptachloor</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
+        <is>
+          <t>gamma-hexachloorcyclohexaan (lindaan)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>cHCH</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2188,34 +2688,44 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>118-74-1</t>
+          <t>76-44-8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>hexachloorbenzeen</t>
+          <t>HpCl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hexachloorbenzeen</t>
+          <t>heptachloor</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>heptachloor</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>hexachloorbenzeen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
+        <is>
+          <t>heptachloor</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>HpCl</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2223,34 +2733,44 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1652</v>
+        <v>1199</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>87-68-3</t>
+          <t>118-74-1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>hexachloorbutadieen</t>
+          <t>HCB</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hexachloorbutadieen</t>
+          <t>hexachloorbenzeen</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Hexachloorbenzeen</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>hexachloorbutadieen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
+        <is>
+          <t>hexachloorbenzeen</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>HCB</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2258,34 +2778,44 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1877</v>
+        <v>1652</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>138261-41-3</t>
+          <t>87-68-3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>imidacloprid</t>
+          <t>HxClbtDen</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>imidacloprid</t>
+          <t>hexachloorbutadieen</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Hexachloorbutadieen</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>imidacloprid</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
+        <is>
+          <t>hexachloorbutadieen</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>HxClbtDen</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2293,34 +2823,44 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1207</v>
+        <v>1877</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>465-73-6</t>
+          <t>138261-41-3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>isodrin</t>
+          <t>imdcpd</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Isodrin</t>
+          <t>imidacloprid</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>imidacloprid</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>isodrin</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
+        <is>
+          <t>imidacloprid</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>imdcpd</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2328,34 +2868,44 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>34123-59-6</t>
+          <t>193-39-5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>isoproturon</t>
+          <t>InP</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Isoproturon</t>
+          <t>indeno(1,2,3-cd)pyreen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Indeno (123cd) pyreen</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>isoproturon</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
+        <is>
+          <t>indeno(1,2,3-c,d)pyreen</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>InP</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2363,69 +2913,89 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1387</v>
+        <v>1207</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7439-97-6</t>
+          <t>465-73-6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>kwik</t>
+          <t>idn</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kwik (Hg) opgelost</t>
+          <t>isodrin</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Isodrin</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>kwik</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>nf</t>
+          <t>isodrin</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>idn</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NVT</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1387</v>
+        <v>1208</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7439-97-6</t>
+          <t>34123-59-6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>kwik</t>
+          <t>iptrn</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kwik (Hg) opgelost</t>
+          <t>isoproturon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Isoproturon</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>kwik</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
+        <is>
+          <t>isoproturon</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>iptrn</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2433,104 +3003,134 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1517</v>
+        <v>1387</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>91-20-3</t>
+          <t>7439-97-6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>naftaleen</t>
+          <t>Hg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Naftaleen</t>
+          <t>kwik</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Kwik (Hg) opgelost</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>naftaleen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>kwik</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hg</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>nf</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7440-02-0</t>
+          <t>7439-97-6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nikkel</t>
+          <t>Hg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nikkel (Ni) opgelost</t>
+          <t>kwik</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Kwik (Hg) opgelost</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>nikkel</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>nf</t>
+          <t>kwik</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Hg</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NVT</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1386</v>
+        <v>1517</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7440-02-0</t>
+          <t>91-20-3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>nikkel</t>
+          <t>Naf</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nikkel (Ni) opgelost</t>
+          <t>naftaleen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Naftaleen</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>nikkel</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
+        <is>
+          <t>naftaleen</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Naf</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2538,69 +3138,89 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1339</v>
+        <v>1386</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14797-65-0</t>
+          <t>7440-02-0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>nitriet</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nitriet NO2</t>
+          <t>nikkel</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>mg/L N</t>
+          <t>Nikkel (Ni) opgelost</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>nitriet</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nnf</t>
+          <t>nikkel</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>nf</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2912</v>
+        <v>1386</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>68631-49-2</t>
+          <t>7440-02-0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2,2',4,4',5,5'-hexabroomdifenylether</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PBDE153 (2,2',4,4',5,5'-hexabroomdifenylether)</t>
+          <t>nikkel</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Nikkel (Ni) opgelost</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2,2',4,4',5,5'-hexabroomdifenylether</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
+        <is>
+          <t>nikkel</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2608,104 +3228,134 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2915</v>
+        <v>1339</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>189084-64-8</t>
+          <t>14797-65-0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2,2',4,4',6-pentabroomdifenylether</t>
+          <t>NO2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PBDE100 (2,2',4,4',6-pentabroomdifenylether)</t>
+          <t>nitriet</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Nitriet NO2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2,2',4,4',6-pentabroomdifenylether</t>
+          <t>mg/L N</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>nitriet</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NO2</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Nnf</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2911</v>
+        <v>1433</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>207122-15-4</t>
+          <t>14265-44-2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2,2',4,4',5,6'-hexabroomdifenylether</t>
+          <t>PO4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PBDE154 (2,2',4,4',5,6'-hexabroomdifenylether)</t>
+          <t>fosfaat</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Opgeloste orthofosfaten</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2,2',4,4',5,6'-hexabroomdifenylether</t>
+          <t>mg/L P</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>orthofosfaat</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PO4</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Pnf</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>41318-75-6</t>
+          <t>68631-49-2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2,4,4'-tribroomdifenylether</t>
+          <t>PBDE153</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PBDE28 (2,4,4'-tribroomdifenylether)</t>
+          <t>2,2',4,4',5,5'-hexabroomdifenylether</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>PBDE153 (2,2',4,4',5,5'-hexabroomdifenylether)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2,4,4'-tribroomdifenylether</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
+        <is>
+          <t>2,2',4,4',5,5'-hexabroomdifenylether</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PBDE153</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2713,34 +3363,44 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5436-43-1</t>
+          <t>189084-64-8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2,2',4,4'-tetrabroomdifenylether</t>
+          <t>PBDE100</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PBDE47 (2,2',4,4'-tetrabroomdifenylether)</t>
+          <t>2,2',4,4',6-pentabroomdifenylether</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>PBDE100 (2,2',4,4',6-pentabroomdifenylether)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2,2',4,4'-tetrabroomdifenylether</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
+        <is>
+          <t>2,2',4,4',6-pentabroomdifenylether</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PBDE100</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2748,34 +3408,44 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>60348-60-9</t>
+          <t>207122-15-4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2,2',4,4',5-pentabroomdifenylether</t>
+          <t>PBDE154</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PBDE99 (2,2',4,4',5-pentabroomdifenylether)</t>
+          <t>2,2',4,4',5,6'-hexabroomdifenylether</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>PBDE154 (2,2',4,4',5,6'-hexabroomdifenylether)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2,2',4,4',5-pentabroomdifenylether</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
+        <is>
+          <t>2,2',4,4',5,6'-hexabroomdifenylether</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PBDE154</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2783,34 +3453,44 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1888</v>
+        <v>2920</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>608-93-5</t>
+          <t>41318-75-6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>pentachloorbenzeen</t>
+          <t>PBDE28</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Pentachloorbenzeen</t>
+          <t>2,4,4'-tribroomdifenylether</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>PBDE28 (2,4,4'-tribroomdifenylether)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>pentachloorbenzeen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
+        <is>
+          <t>2,4,4'-tribroomdifenylether</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PBDE28</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2818,34 +3498,44 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1235</v>
+        <v>2919</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>87-86-5</t>
+          <t>5436-43-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>pentachloorfenol</t>
+          <t>PBDE47</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pentachloorfenol</t>
+          <t>2,2',4,4'-tetrabroomdifenylether</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>PBDE47 (2,2',4,4'-tetrabroomdifenylether)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>pentachloorfenol</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
+        <is>
+          <t>2,2',4,4'-tetrabroomdifenylether</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PBDE47</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2853,69 +3543,89 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1382</v>
+        <v>2916</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7439-92-1</t>
+          <t>60348-60-9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>lood</t>
+          <t>PBDE99</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lood (Pb) opgelost</t>
+          <t>2,2',4,4',5-pentabroomdifenylether</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>PBDE99 (2,2',4,4',5-pentabroomdifenylether)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>lood</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>nf</t>
+          <t>2,2',4,4',5-pentabroomdifenylether</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PBDE99</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NVT</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1382</v>
+        <v>1888</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7439-92-1</t>
+          <t>608-93-5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>lood</t>
+          <t>PeClBen</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Lood (Pb) opgelost</t>
+          <t>pentachloorbenzeen</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Pentachloorbenzeen</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>lood</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
+        <is>
+          <t>pentachloorbenzeen</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PeClBen</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2923,34 +3633,44 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2028</v>
+        <v>1235</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>124495-18-7</t>
+          <t>87-86-5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>quinoxyfen</t>
+          <t>PeClFol</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quinoxyfen</t>
+          <t>pentachloorfenol</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Pentachloorfenol</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>quinoxyfen</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
+        <is>
+          <t>pentachloorfenol</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PeClFol</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -2958,69 +3678,89 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1263</v>
+        <v>1382</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>122-34-9</t>
+          <t>7439-92-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>simazine</t>
+          <t>Pb</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Simazine</t>
+          <t>lood</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Lood (Pb) opgelost</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>simazine</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>lood</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Pb</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>nf</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1272</v>
+        <v>1382</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>127-18-4</t>
+          <t>7439-92-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>tetrachlooretheen (per)</t>
+          <t>Pb</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tetrachlooreth(yl)een</t>
+          <t>lood</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Lood (Pb) opgelost</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>tetrachlooretheen (per)</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
+        <is>
+          <t>lood</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Pb</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -3028,34 +3768,44 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1276</v>
+        <v>2028</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56-23-5</t>
+          <t>124495-18-7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>tetrachloormethaan (tetra)</t>
+          <t>quinoxfn</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tetrachloormethaan</t>
+          <t>quinoxyfen</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Quinoxyfen</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>tetrachloormethaan (tetra)</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
+        <is>
+          <t>quinoxyfen</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>quinoxfn</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -3063,34 +3813,44 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1286</v>
+        <v>1263</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>79-01-6</t>
+          <t>122-34-9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>trichlooretheen (tri)</t>
+          <t>simzne</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Trichlooreth(yl)een</t>
+          <t>simazine</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Simazine</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>trichlooretheen (tri)</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>simazine</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>simzne</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -3098,34 +3858,44 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1135</v>
+        <v>1272</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>67-66-3</t>
+          <t>127-18-4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>trichloormethaan (chloroform)</t>
+          <t>T4ClC2e</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Trichloormethaan</t>
+          <t>tetrachlooretheen (per)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Tetrachlooreth(yl)een</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>trichloormethaan (chloroform)</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
+        <is>
+          <t>tetrachlooretheen (per)</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>T4ClC2e</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -3133,34 +3903,44 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1582-09-8</t>
+          <t>56-23-5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>trifluraline</t>
+          <t>T4ClC1a</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Trifluraline</t>
+          <t>tetrachloormethaan (tetra)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Tetrachloormethaan</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>trifluraline</t>
+          <t>µg/L</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
+        <is>
+          <t>tetrachloormethaan (tetra)</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>T4ClC1a</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -3168,34 +3948,314 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>79-01-6</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TClC2e</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>trichlooretheen (tri)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Trichlooreth(yl)een</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>trichlooretheen (tri)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>TClC2e</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>67-66-3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>TClC1a</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>trichloormethaan (chloroform)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Trichloormethaan</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>trichloormethaan (chloroform)</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>TClC1a</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1582-09-8</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tfrlne</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>trifluraline</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Trifluraline</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>trifluraline</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tfrlne</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>5347</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>335-67-1</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PFOA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>perfluoroctaanzuur</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>ng/L</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>perfluoroctaanzuur</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>PFOA</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6830</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>355-46-4</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>L_PFHxS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>perfluorhexaansulfonzuur</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PFHxS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ng/L</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>perfluor-1-hexaansulfonaat (lineair)</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>L_PFHxS</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5978</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>307-24-4</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PFHxA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>perfluorhexaanzuur</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>PFHxA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ng/L</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>perfluor-n-hexaanzuur</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PFHxA</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5979</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2706-90-3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PFPA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>perfluorpentaanzuur</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>PFPeA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ng/L</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>perfluor-n-pentaanzuur</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>PFPA</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>NVT</t>
         </is>
@@ -3212,7 +4272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3233,25 +4293,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AQUO_Codes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>AQUO_Omschrijving</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ISC_Parameter</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Identification unique de l'unité</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DONAR_Parameter</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DONAR_PARCode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>HDH</t>
         </is>
@@ -3263,18 +4333,20 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Benzo(a)antraceen</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3287,21 +4359,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C2yClprfs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>ethylchloorpyrifos</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Chloorpyrifos (Chloorpyrifos ethyl)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3314,160 +4392,180 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>BbF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>benzo(b)fluorantheen</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Benzo (b) fluorantheen</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1118</v>
+        <v>1143</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>191-24-2</t>
+          <t>53-19-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>benzo(ghi)peryleen</t>
+          <t>24DDD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benzo (ghi) peryleen</t>
+          <t>2,4'-dichloordifenyldichloorethaan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>DDD op'</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53-19-0</t>
+          <t>3424-82-6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2,4'-dichloordifenyldichloorethaan</t>
+          <t>24DDE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DDD op'</t>
+          <t>2,4'-dichloordifenyldichlooretheen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>DDE op'</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1145</v>
+        <v>1269</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3424-82-6</t>
+          <t>886-50-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,4'-dichloordifenyldichlooretheen</t>
+          <t>terbtn</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DDE op'</t>
+          <t>terbutrin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Terbutryne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1204</v>
+        <v>1301</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>193-39-5</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>indeno(1,2,3-cd)pyreen</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Indeno (123cd) pyreen</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Watertemperatuur</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>886-50-0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>terbutrin</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Terbutryne</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>u pH</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3475,22 +4573,24 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Watertemperatuur</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>°C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Geleidbaarheid</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>µS/cm (à/bij 25°C)</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3498,114 +4598,124 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>u pH</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Zwevende stoffen</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80937-33-3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Geleidbaarheid</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>µS/cm (à/bij 25°C)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Opgeloste zuurstof</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80937-33-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Zwevende stoffen</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Opgeloste zuurstof</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>80937-33-3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Opgeloste zuurstof</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>BZV5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>mg/L O2</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>80937-33-3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Opgeloste zuurstof</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>CZV</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mg/L O2</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3613,652 +4723,738 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>BZV5</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>mg/L O2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Kjeldahl stikstof</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1314</v>
+        <v>1335</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6684-80-6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CZV</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>mg/L O2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Ammonium NH4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mg/L N</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1319</v>
+        <v>1338</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>18785-72-3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Kjeldahl stikstof</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Sulfaat</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>mg/L</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6684-80-6</t>
+          <t>84145-82-4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Ammonium NH4</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Nitraat NO3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>mg/L N</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18785-72-3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sulfaat</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Hardheid TH</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>°f (degré français/Franse graden)</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>84145-82-4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Nitraat NO3</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>mg/L N</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Totaal fosfor</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1345</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Hardheid TH</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>°f (degré français/Franse graden)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Uraan (U) opgelost</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1350</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>1368</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Totaal fosfor</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Zilver (Ag) opgelost</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1361</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
+        <v>1383</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9029-97-4</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Uraan (U) opgelost</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Zink (Zn) opgelost</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1368</v>
+        <v>1385</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Zilver (Ag) opgelost</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>Seleen (Se) opgelost</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1383</v>
+        <v>1551</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9029-97-4</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>7727-37-9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Zink (Zn) opgelost</t>
+          <t>distikstof</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>Totaal stikstof (Kj + NO2 + NO3)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1385</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+        <v>1743</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>115-29-7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>endsfn</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Seleen (Se) opgelost</t>
+          <t>endosulfan (som alfa- en beta-isomeer)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>Endosulfan</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1433</v>
+        <v>1774</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14265-44-2</t>
+          <t>12002-48-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fosfaat</t>
+          <t>TClBen</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Opgeloste orthofosfaten</t>
+          <t>trichloorbenzeen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>mg/L P</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Trichloorbenzenen (alle isomeren)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1551</v>
+        <v>1920</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7727-37-9</t>
+          <t>1806-26-4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>distikstof</t>
+          <t>4C8yFol</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Totaal stikstof (Kj + NO2 + NO3)</t>
+          <t>4-n-octylfenol</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Octylfenolen</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1743</v>
+        <v>1955</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>115-29-7</t>
+          <t>85535-84-8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>endosulfan (som alfa- en beta-isomeer)</t>
+          <t>sC10C13Clakn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Endosulfan</t>
+          <t>som C10-C13-chlooralkanen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>C10-C13-chlooralkanen</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1774</v>
+        <v>1958</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12002-48-1</t>
+          <t>104-40-5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>trichloorbenzeen</t>
+          <t>4C9yFol</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Trichloorbenzenen (alle isomeren)</t>
+          <t>4-nonylfenol</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>4-nonylfenol</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1920</v>
+        <v>5474</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1806-26-4</t>
+          <t>25154-52-3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4-n-octylfenol</t>
+          <t>C9yFol</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octylfenolen</t>
+          <t>nonylfenol</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>Nonylfenolen</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1955</v>
+        <v>5534</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>85535-84-8</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>som C10-C13-chlooralkanen</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>C10-C13-chlooralkanen</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>Som aldrin+endrin+dieldrin+isodrin</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1958</v>
+        <v>5537</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>104-40-5</t>
+          <t>608-73-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4-nonylfenol</t>
+          <t>sHCH</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4-nonylfenol</t>
+          <t>som hexachloorcyclohexaan-isomeren</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>Hexachloorcyclohexaan</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5474</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>25154-52-3</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>nonylfenol</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Nonylfenolen</t>
-        </is>
-      </c>
+        <v>5977</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t xml:space="preserve"> PFHpA </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ng/L</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5534</v>
+        <v>6561</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>1763-23-1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PFOS</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Som aldrin+endrin+dieldrin+isodrin</t>
+          <t>perfluoroctaansulfonzuur</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>Perfluor octaanzuur PFOS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ng/L</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5537</v>
+        <v>6678</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>608-73-1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>som hexachloorcyclohexaan-isomeren</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Hexachloorcyclohexaan</t>
-        </is>
-      </c>
+          <t>32534-81-9</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>Pentabroomdifenylether som</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5977</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
+        <v>6678</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PFHpA </t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ng/L</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>polybroomdifenylether, totaal</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5978</v>
+        <v>7128</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>307-24-4</t>
+          <t>3194-55-6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>perfluorhexaanzuur</t>
+          <t>sHBCD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PFHxA</t>
+          <t>som 1,2,5,6,9,10-hexabroomcyclododecaan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ng/L</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>hexabroom-cyclododecaan (HBCDD)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5979</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2706-90-3</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>perfluorpentaanzuur</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>PFPeA</t>
-        </is>
-      </c>
+        <v>7170</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ng/L</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t xml:space="preserve">Som DDT 2,4' &amp; 4,4', DDD 2,4' &amp; 4,4'  DDE 2,4' &amp; 4,4' </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6561</v>
+        <v>7706</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1763-23-1</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>perfluoroctaansulfonzuur</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Perfluor octaanzuur PFOS</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ng/L</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>Heptachloor + heptachloorepoxide</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>6678</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>32534-81-9</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Pentabroomdifenylether som</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>Opgeloste organische koolstof DOC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>6678</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>COT</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4266,291 +5462,159 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>polybroomdifenylether, totaal</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>Totaal organische koolstof TOC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>6830</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DIAT</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>355-46-4</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>perfluorhexaansulfonzuur</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>PFHxS</t>
-        </is>
-      </c>
+          <t>EEA_124-04-9 *</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ng/L</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>Evaluatie biologische kwaliteit - Diatomeeën</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>7128</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FISH</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3194-55-6</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>som 1,2,5,6,9,10-hexabroomcyclododecaan</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>hexabroom-cyclododecaan (HBCDD)</t>
-        </is>
-      </c>
+          <t>EEA_14-02-8 *</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>Evaluatie biologische kwaliteit -Vis</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>7170</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EEA_13-01-4 *</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Som DDT 2,4' &amp; 4,4', DDD 2,4' &amp; 4,4'  DDE 2,4' &amp; 4,4' </t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>Evaluatie biologische kwaliteit - Macro-invertebraten</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>7706</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Unieke identificatie gemeten parameter
+Sandre code</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>PARAMETER</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Unieke eenheidsidentificatie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Heptachloor + heptachloorepoxide</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Opgeloste organische koolstof DOC</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>Dioxines en verbindingen van het dioxinetype</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>COT</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Totaal organische koolstof TOC</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>DIAT</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>EEA_124-04-9 *</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Evaluatie biologische kwaliteit - Diatomeeën</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> /</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>FISH</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>EEA_14-02-8 *</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Evaluatie biologische kwaliteit -Vis</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> /</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>INV</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>EEA_13-01-4 *</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Evaluatie biologische kwaliteit - Macro-invertebraten</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> /</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Unieke identificatie gemeten parameter
-Sandre code</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>PARAMETER</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Unieke eenheidsidentificatie</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Dioxines en verbindingen van het dioxinetype</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>µg/L</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
